--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New3VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New3VIN_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +241,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +259,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,19 +276,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -558,35 +578,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="29" width="13.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" customWidth="1"/>
-    <col min="38" max="38" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -805,7 +825,7 @@
       <c r="AH2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="5">
         <v>20010101</v>
       </c>
       <c r="AJ2" s="3" t="s">
@@ -818,7 +838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -921,10 +941,10 @@
       <c r="AH3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="4">
         <v>20000101</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="AK3" s="3" t="s">
@@ -934,7 +954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1037,7 +1057,7 @@
       <c r="AH4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="4">
         <v>20150101</v>
       </c>
       <c r="AJ4" s="3" t="s">
@@ -1050,7 +1070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1153,7 +1173,7 @@
       <c r="AH5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="4">
         <v>20190101</v>
       </c>
       <c r="AJ5" s="3" t="s">

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New3VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New3VIN_UT_SS.xlsx
@@ -212,7 +212,7 @@
     <t>SYMBOL_2000</t>
   </si>
   <si>
-    <t>BBBKN3DD&amp;E</t>
+    <t>CCCKN3DD&amp;E</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New3VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New3VIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>VIN</t>
   </si>
@@ -137,9 +137,6 @@
     <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Gt</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>invalidVIN</t>
   </si>
   <si>
@@ -200,7 +194,55 @@
     <t>VERSION</t>
   </si>
   <si>
-    <t>SYMBOL_2000</t>
+    <t>SYMBOL_2017</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>PD001</t>
+  </si>
+  <si>
+    <t>UM001</t>
+  </si>
+  <si>
+    <t>MP001</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>MP002</t>
+  </si>
+  <si>
+    <t>BI003</t>
+  </si>
+  <si>
+    <t>PD003</t>
+  </si>
+  <si>
+    <t>UM003</t>
+  </si>
+  <si>
+    <t>MP003</t>
+  </si>
+  <si>
+    <t>BI004</t>
+  </si>
+  <si>
+    <t>PD004</t>
+  </si>
+  <si>
+    <t>UM004</t>
+  </si>
+  <si>
+    <t>MP004</t>
   </si>
 </sst>
 </file>
@@ -558,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -670,48 +712,48 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -723,19 +765,19 @@
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2">
         <v>8</v>
@@ -777,51 +819,51 @@
         <v>42</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="4">
         <v>20010101</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -833,19 +875,19 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
         <v>8</v>
@@ -887,51 +929,51 @@
         <v>42</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AG3" s="3">
         <v>20000101</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>27</v>
@@ -943,19 +985,19 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
         <v>8</v>
@@ -997,51 +1039,51 @@
         <v>42</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AG4" s="3">
         <v>20150101</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -1053,19 +1095,19 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2">
         <v>8</v>
@@ -1107,31 +1149,31 @@
         <v>42</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AG5" s="3">
         <v>20190101</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
